--- a/data/data_monitoreo_la_villa_letira_becara.xlsx
+++ b/data/data_monitoreo_la_villa_letira_becara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,47 +452,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANTON INGA FATIMA DEL ROSARIO</t>
+          <t>LLENQUE ANTON HELEN JOHANA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
+          <t>ANTON INGA FATIMA DEL ROSARIO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TEMOCHE ECHE URSULA YESSENIA</t>
+          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLENQUE ANTON HELEN JOHANA</t>
+          <t>TEMOCHE ECHE URSULA YESSENIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -502,87 +502,87 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
+          <t>VELASCO PEÑA KAREN ARELLYS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VELASCO PEÑA KAREN ARELLYS</t>
+          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MONDRAGON NONAJULCA MARISOL</t>
+          <t>FLORES SILUPU MARY CARMEN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
+          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FLORES SILUPU MARY CARMEN</t>
+          <t>MONDRAGON NONAJULCA MARISOL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PINTADO CHASQUERO ESTEFANY</t>
+          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
+          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
+          <t>PINTADO CHASQUERO ESTEFANY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PINTADO BENITES CRISTOBAL RODRIGO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_la_villa_letira_becara.xlsx
+++ b/data/data_monitoreo_la_villa_letira_becara.xlsx
@@ -448,81 +448,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
+          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LLENQUE ANTON HELEN JOHANA</t>
+          <t>GONZALES FIESTAS MARIA MARIBEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANTON INGA FATIMA DEL ROSARIO</t>
+          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
+          <t>TEMOCHE ECHE URSULA YESSENIA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TEMOCHE ECHE URSULA YESSENIA</t>
+          <t>LLENQUE ANTON HELEN JOHANA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GONZALES FIESTAS MARIA MARIBEL</t>
+          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VELASCO PEÑA KAREN ARELLYS</t>
+          <t>ANTON INGA FATIMA DEL ROSARIO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
+          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -532,57 +532,57 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
+          <t>VELASCO PEÑA KAREN ARELLYS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MONDRAGON NONAJULCA MARISOL</t>
+          <t>PINTADO CHASQUERO ESTEFANY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
+          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
+          <t>MONDRAGON NONAJULCA MARISOL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PINTADO CHASQUERO ESTEFANY</t>
+          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">

--- a/data/data_monitoreo_la_villa_letira_becara.xlsx
+++ b/data/data_monitoreo_la_villa_letira_becara.xlsx
@@ -452,17 +452,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GONZALES FIESTAS MARIA MARIBEL</t>
+          <t>TEMOCHE ECHE URSULA YESSENIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -472,47 +472,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TEMOCHE ECHE URSULA YESSENIA</t>
+          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLENQUE ANTON HELEN JOHANA</t>
+          <t>GONZALES FIESTAS MARIA MARIBEL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
+          <t>ANTON INGA FATIMA DEL ROSARIO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANTON INGA FATIMA DEL ROSARIO</t>
+          <t>LLENQUE ANTON HELEN JOHANA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -522,67 +522,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FLORES SILUPU MARY CARMEN</t>
+          <t>PINTADO CHASQUERO ESTEFANY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VELASCO PEÑA KAREN ARELLYS</t>
+          <t>MONDRAGON NONAJULCA MARISOL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PINTADO CHASQUERO ESTEFANY</t>
+          <t>VELASCO PEÑA KAREN ARELLYS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
+          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MONDRAGON NONAJULCA MARISOL</t>
+          <t>FLORES SILUPU MARY CARMEN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
+          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">

--- a/data/data_monitoreo_la_villa_letira_becara.xlsx
+++ b/data/data_monitoreo_la_villa_letira_becara.xlsx
@@ -448,67 +448,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
+          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TEMOCHE ECHE URSULA YESSENIA</t>
+          <t>GONZALES FIESTAS MARIA MARIBEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
+          <t>ANTON INGA FATIMA DEL ROSARIO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
+          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GONZALES FIESTAS MARIA MARIBEL</t>
+          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANTON INGA FATIMA DEL ROSARIO</t>
+          <t>TEMOCHE ECHE URSULA YESSENIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLENQUE ANTON HELEN JOHANA</t>
+          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,41 +518,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
+          <t>LLENQUE ANTON HELEN JOHANA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PINTADO CHASQUERO ESTEFANY</t>
+          <t>VELASCO PEÑA KAREN ARELLYS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MONDRAGON NONAJULCA MARISOL</t>
+          <t>PINTADO CHASQUERO ESTEFANY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VELASCO PEÑA KAREN ARELLYS</t>
+          <t>FLORES SILUPU MARY CARMEN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -562,17 +562,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FLORES SILUPU MARY CARMEN</t>
+          <t>MONDRAGON NONAJULCA MARISOL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -582,27 +582,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CASTRO ESTRADA CINTHIA PATRICIA</t>
+          <t>MORENO YANAYACO NAYLA GUADALUPE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MORENO YANAYACO NAYLA GUADALUPE</t>
+          <t>CASTRO ESTRADA CINTHIA PATRICIA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">

--- a/data/data_monitoreo_la_villa_letira_becara.xlsx
+++ b/data/data_monitoreo_la_villa_letira_becara.xlsx
@@ -448,77 +448,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
+          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GONZALES FIESTAS MARIA MARIBEL</t>
+          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANTON INGA FATIMA DEL ROSARIO</t>
+          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RUIZ CHIROQUE CLAUDIA JUDITH</t>
+          <t>LLENQUE ANTON HELEN JOHANA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
+          <t>TEMOCHE ECHE URSULA YESSENIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TEMOCHE ECHE URSULA YESSENIA</t>
+          <t>GONZALES FIESTAS MARIA MARIBEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
+          <t>ANTON INGA FATIMA DEL ROSARIO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLENQUE ANTON HELEN JOHANA</t>
+          <t>BAUTISTA CHAVESTA ERICKA MEDALIT</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -538,41 +538,41 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PINTADO CHASQUERO ESTEFANY</t>
+          <t>MONDRAGON NONAJULCA MARISOL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FLORES SILUPU MARY CARMEN</t>
+          <t>PINTADO CHASQUERO ESTEFANY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
+          <t>FLORES SILUPU MARY CARMEN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MONDRAGON NONAJULCA MARISOL</t>
+          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">

--- a/data/data_monitoreo_la_villa_letira_becara.xlsx
+++ b/data/data_monitoreo_la_villa_letira_becara.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
+          <t>LLENQUE ANTON HELEN JOHANA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LLENQUE ANTON HELEN JOHANA</t>
+          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -522,67 +522,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VELASCO PEÑA KAREN ARELLYS</t>
+          <t>PINTADO CHASQUERO ESTEFANY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MONDRAGON NONAJULCA MARISOL</t>
+          <t>VELASCO PEÑA KAREN ARELLYS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PINTADO CHASQUERO ESTEFANY</t>
+          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FLORES SILUPU MARY CARMEN</t>
+          <t>MONDRAGON NONAJULCA MARISOL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
+          <t>FLORES SILUPU MARY CARMEN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HERNANDEZ CARNERO ARTURO SEBASTIAN</t>
+          <t>ORDINOLA JIBAJA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">

--- a/data/data_monitoreo_la_villa_letira_becara.xlsx
+++ b/data/data_monitoreo_la_villa_letira_becara.xlsx
@@ -452,37 +452,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
+          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LLENQUE ANTON HELEN JOHANA</t>
+          <t>FABIANA REBECA ARRUNATEGUI SILUPU</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BANCAYAN FIESTA DILVER HUMBERTO</t>
+          <t>LLENQUE ANTON HELEN JOHANA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -502,17 +502,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANTON INGA FATIMA DEL ROSARIO</t>
+          <t>PINTADO CHASQUERO ESTEFANY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PINTADO CHASQUERO ESTEFANY</t>
+          <t>ANTON INGA FATIMA DEL ROSARIO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -582,27 +582,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MORENO YANAYACO NAYLA GUADALUPE</t>
+          <t>CASTRO ESTRADA CINTHIA PATRICIA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CASTRO ESTRADA CINTHIA PATRICIA</t>
+          <t>MORENO YANAYACO NAYLA GUADALUPE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
